--- a/biology/Botanique/Persicaria_capitata/Persicaria_capitata.xlsx
+++ b/biology/Botanique/Persicaria_capitata/Persicaria_capitata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Persicaria capitata est une espèce de plantes herbacées de la famille des Polygonaceae. Elle est originaire d'Asie et utilisée comme couvre-sol à des fins décoratives ; elle est devenue invasive dans de nombreuses régions (Amérique du Nord, Australie, La Réunion, Açores…).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses feuilles pubescentes sont longues de 1 à 6 cm et larges de 0,7 à 3 cm avec des bandes en « V » ou des taches brun-rouge.
 Les fleurs sont réunies en petites grappes sphériques de 8-10 mm de diamètre.
